--- a/data/InBold.xlsx
+++ b/data/InBold.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FD4EDA-6F48-4CAE-BBE3-C7331AB78365}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871E6F49-C0C3-4D21-9D44-37A976543FD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{83082157-827A-4E8D-A936-ED34E3EBBEB3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{83082157-827A-4E8D-A936-ED34E3EBBEB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,56 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="144">
   <si>
     <t>Tên</t>
   </si>
   <si>
-    <t>Tri 2</t>
-  </si>
-  <si>
-    <t>Tri 3</t>
-  </si>
-  <si>
-    <t>Tri 4</t>
-  </si>
-  <si>
-    <t>Tri 5</t>
-  </si>
-  <si>
-    <t>Tri 6</t>
-  </si>
-  <si>
-    <t>Hau 2</t>
-  </si>
-  <si>
-    <t>Hau 3</t>
-  </si>
-  <si>
-    <t>Hau 4</t>
-  </si>
-  <si>
-    <t>Hau 5</t>
-  </si>
-  <si>
-    <t>Hau 6</t>
-  </si>
-  <si>
-    <t>Thuy 2</t>
-  </si>
-  <si>
-    <t>Thuy 3</t>
-  </si>
-  <si>
-    <t>Thuy 4</t>
-  </si>
-  <si>
-    <t>Thuy 5</t>
-  </si>
-  <si>
-    <t>Thuy 6</t>
-  </si>
-  <si>
     <t>Thứ2</t>
   </si>
   <si>
@@ -97,13 +52,418 @@
   </si>
   <si>
     <t>Huynh Ngoc Phuong Thuy</t>
+  </si>
+  <si>
+    <t>Món chay: Súp lơ xào nấm đông cô</t>
+  </si>
+  <si>
+    <t>Healthy dish: Salad ức gà nướng mật ong + Khoai lang + Trứng lòng đào</t>
+  </si>
+  <si>
+    <t>Canh khổ qua dồn thịt</t>
+  </si>
+  <si>
+    <t>Cơm tấm Long Xuyên</t>
+  </si>
+  <si>
+    <t>Món chay: Gỏi cuốn</t>
+  </si>
+  <si>
+    <t>Miến Tomyum bò + cá viên kiểu Thái</t>
+  </si>
+  <si>
+    <t>Trứng chiên hến</t>
+  </si>
+  <si>
+    <t>Gà xốt xí muội</t>
+  </si>
+  <si>
+    <t>Mỳ bò Đài Loan</t>
+  </si>
+  <si>
+    <t>Sườn non rim mặn</t>
+  </si>
+  <si>
+    <t>Thịt heo xào sả ớt</t>
+  </si>
+  <si>
+    <t>Bò xào nấm kim châm</t>
+  </si>
+  <si>
+    <t>Ba rọi kho đậu hũ</t>
+  </si>
+  <si>
+    <t>Bánh canh chả cá Nha Trang + Trứng cút</t>
+  </si>
+  <si>
+    <t>Tôm sốt trứng muối</t>
+  </si>
+  <si>
+    <t>Không đặt cơm</t>
+  </si>
+  <si>
+    <t>Bò xào rau muống</t>
+  </si>
+  <si>
+    <t>Pierre Bouahom</t>
+  </si>
+  <si>
+    <t>Món chay: Mỳ quảng trộn</t>
+  </si>
+  <si>
+    <t>Healthy Dish: Mỳ gạo lứt thịt heo sốt BBQ + Trứng lòng đào</t>
+  </si>
+  <si>
+    <t>Healthy Dish: Cơm gạo lứt bò sốt tiêu đen + Cải thìa xào tỏi</t>
+  </si>
+  <si>
+    <t>Healthy Dish: Sandwich cá ngừ + Trứng</t>
+  </si>
+  <si>
+    <t>Healthy Dish: Cơm gạo lứt trộn Hàn Quốc</t>
+  </si>
+  <si>
+    <t>File cá basa chiên sốt bơ tỏi</t>
+  </si>
+  <si>
+    <t>Món chay: Rau củ luộc chấm chao</t>
+  </si>
+  <si>
+    <t>Cá nục kho tiêu + Tóp mỡ</t>
+  </si>
+  <si>
+    <t>Món chay: Hủ tiếu bò kho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simone Kidholm Boysen </t>
+  </si>
+  <si>
+    <t>Carsten Vigh</t>
+  </si>
+  <si>
+    <t>Milorad David Vuckovic</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Hoai An</t>
+  </si>
+  <si>
+    <t>Pham Tran Truong An</t>
+  </si>
+  <si>
+    <t>Bui Phuong Anh</t>
+  </si>
+  <si>
+    <t>Lam Ngoc Phuong Anh</t>
+  </si>
+  <si>
+    <t>Luong Ngoc Que Anh</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Lan Anh</t>
+  </si>
+  <si>
+    <t>Vu Thi Lan Anh</t>
+  </si>
+  <si>
+    <t>Nguyen Ngoc Lan Chi</t>
+  </si>
+  <si>
+    <t>Pham Hai Chieu</t>
+  </si>
+  <si>
+    <t>Quach Vinh Duc</t>
+  </si>
+  <si>
+    <t>Dinh Thi Nhut Ha</t>
+  </si>
+  <si>
+    <t>Phan Thi Hong Ha</t>
+  </si>
+  <si>
+    <t>Vo Ngoc Han</t>
+  </si>
+  <si>
+    <t>Ho Thi Kim Hao</t>
+  </si>
+  <si>
+    <t>Dang Le Minh Hieu</t>
+  </si>
+  <si>
+    <t>Hoang Minh Hieu</t>
+  </si>
+  <si>
+    <t>Tran Gia Hoa</t>
+  </si>
+  <si>
+    <t>Tran Thi Minh Hoang</t>
+  </si>
+  <si>
+    <t>Nguyen Kim My Huong</t>
+  </si>
+  <si>
+    <t>Nguyen Minh Huy</t>
+  </si>
+  <si>
+    <t>Tran Huynh Gia Huy</t>
+  </si>
+  <si>
+    <t>Luong Ngoc Huyen</t>
+  </si>
+  <si>
+    <t>Nguyen Ngoc Nhu Huynh</t>
+  </si>
+  <si>
+    <t>Luu Tran Dieu Khanh</t>
+  </si>
+  <si>
+    <t>Dang Minh Khoa</t>
+  </si>
+  <si>
+    <t>Lieu Te Kiet</t>
+  </si>
+  <si>
+    <t>Truong Minh Thien Kim</t>
+  </si>
+  <si>
+    <t>Le Hoang Nhat Lan</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Bich Lien</t>
+  </si>
+  <si>
+    <t>Nguyen Ngo My Linh</t>
+  </si>
+  <si>
+    <t>Nguyen Ngoc Khanh Linh</t>
+  </si>
+  <si>
+    <t>Nguyen Phan Khanh Linh</t>
+  </si>
+  <si>
+    <t>Nguyen Truc Linh</t>
+  </si>
+  <si>
+    <t>Pham Tan Linh</t>
+  </si>
+  <si>
+    <t>Nguyen Tran Nhat Minh</t>
+  </si>
+  <si>
+    <t>Vo Hien Minh</t>
+  </si>
+  <si>
+    <t>Do Thi Diem My</t>
+  </si>
+  <si>
+    <t>Pham Nguyen Ngoc My</t>
+  </si>
+  <si>
+    <t>Le Thi Nga</t>
+  </si>
+  <si>
+    <t>Ngo Hoang Khanh Ngan</t>
+  </si>
+  <si>
+    <t>Doan Thi Bich Ngoc</t>
+  </si>
+  <si>
+    <t>Hoang Minh Ngoc</t>
+  </si>
+  <si>
+    <t>Le Thi Cam Ngoc</t>
+  </si>
+  <si>
+    <t>Phan Hoang Nguyen</t>
+  </si>
+  <si>
+    <t>Trinh Thao Nguyen</t>
+  </si>
+  <si>
+    <t>Tran Thi Hoa Nha</t>
+  </si>
+  <si>
+    <t>Tran Huu Nhan</t>
+  </si>
+  <si>
+    <t>Chung Minh Nhat</t>
+  </si>
+  <si>
+    <t>Huynh Thi Mong Nhu</t>
+  </si>
+  <si>
+    <t>Tran Hao Tam Nhu</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Hong Nhung</t>
+  </si>
+  <si>
+    <t>Gilda Orru</t>
+  </si>
+  <si>
+    <t>Dang Van Phi</t>
+  </si>
+  <si>
+    <t>Le Thi Thanh Phi</t>
+  </si>
+  <si>
+    <t>Do Linh Phung</t>
+  </si>
+  <si>
+    <t>Pham Bich Phuong</t>
+  </si>
+  <si>
+    <t>Pham Duong Ha Phuong</t>
+  </si>
+  <si>
+    <t>Truong Thanh Thao Phuong</t>
+  </si>
+  <si>
+    <t>Tran Thi Kim Phuong</t>
+  </si>
+  <si>
+    <t>Vo Dang Quan</t>
+  </si>
+  <si>
+    <t>Tran Thi Ngoc Qui</t>
+  </si>
+  <si>
+    <t>Huynh Thi Binh Quy</t>
+  </si>
+  <si>
+    <t>Tran Nha Quynh</t>
+  </si>
+  <si>
+    <t>Ha Minh Thanh</t>
+  </si>
+  <si>
+    <t>Tran Thi An Thanh</t>
+  </si>
+  <si>
+    <t>Phan Minh Thao</t>
+  </si>
+  <si>
+    <t>Tran Hoang Tho</t>
+  </si>
+  <si>
+    <t>Ngo Ha Thanh Thu</t>
+  </si>
+  <si>
+    <t>Nguyen Thanh Thuy</t>
+  </si>
+  <si>
+    <t>Hoang Thi Tien</t>
+  </si>
+  <si>
+    <t>Trinh Phung Hanh Tien</t>
+  </si>
+  <si>
+    <t>Tran Trung Tin</t>
+  </si>
+  <si>
+    <t>Nguyen Quoc Toan</t>
+  </si>
+  <si>
+    <t>Nguyen Thi My Tra</t>
+  </si>
+  <si>
+    <t>Pham Vinh Tra</t>
+  </si>
+  <si>
+    <t>Le Ngoc Bao Tran</t>
+  </si>
+  <si>
+    <t>Nguyen Minh Tri</t>
+  </si>
+  <si>
+    <t>Tran Thuy Thanh Truc</t>
+  </si>
+  <si>
+    <t>Nguyen Thanh Ngoc Tu</t>
+  </si>
+  <si>
+    <t>Nguyen Anh Tuan</t>
+  </si>
+  <si>
+    <t>Tran Thi Thu Xinh</t>
+  </si>
+  <si>
+    <t>Le Nhu Y</t>
+  </si>
+  <si>
+    <t>Nguyen Nam Anh</t>
+  </si>
+  <si>
+    <t>Tran Nguyen Lan Chi</t>
+  </si>
+  <si>
+    <t>Pham Cong Danh</t>
+  </si>
+  <si>
+    <t>Thach Thi Phuong Dung</t>
+  </si>
+  <si>
+    <t>Tran Anh Hoa</t>
+  </si>
+  <si>
+    <t>Do Dang Huy</t>
+  </si>
+  <si>
+    <t>Truong Cong Huy</t>
+  </si>
+  <si>
+    <t>Le Thi My Huyen</t>
+  </si>
+  <si>
+    <t>Nguyen Nhu Huynh</t>
+  </si>
+  <si>
+    <t>Doan Anh Linh</t>
+  </si>
+  <si>
+    <t>Nguyen Minh Luan</t>
+  </si>
+  <si>
+    <t>Tran Bao My</t>
+  </si>
+  <si>
+    <t>Luu Nguyen Khanh Nghi</t>
+  </si>
+  <si>
+    <t>Tran Cao Phu</t>
+  </si>
+  <si>
+    <t>Le Thi Phuong</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Lan Phuong</t>
+  </si>
+  <si>
+    <t>Le Tuan Quang</t>
+  </si>
+  <si>
+    <t>Nguyen Dac Diem Quynh</t>
+  </si>
+  <si>
+    <t>Hoang Vuong Thuan</t>
+  </si>
+  <si>
+    <t>Nguyen Anh Tu</t>
+  </si>
+  <si>
+    <t>Truong Giang Hoai Uyen</t>
+  </si>
+  <si>
+    <t>Pham Cong Vu</t>
+  </si>
+  <si>
+    <t>Doan Tran Hoang Yen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +473,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,13 +505,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -454,15 +871,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F3DA87-BDDC-4567-B18A-229579915FB9}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -470,79 +892,2402 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" t="s">
+        <v>35</v>
+      </c>
+      <c r="F71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" t="s">
+        <v>35</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84" t="s">
+        <v>35</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" t="s">
+        <v>35</v>
+      </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" t="s">
+        <v>23</v>
+      </c>
+      <c r="F86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" t="s">
+        <v>30</v>
+      </c>
+      <c r="F98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B101" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B102" t="s">
+        <v>32</v>
+      </c>
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B103" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B104" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" t="s">
+        <v>23</v>
+      </c>
+      <c r="F105" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>22</v>
+      </c>
+      <c r="E107" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" t="s">
+        <v>33</v>
+      </c>
+      <c r="E109" t="s">
+        <v>35</v>
+      </c>
+      <c r="F109" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" t="s">
+        <v>33</v>
+      </c>
+      <c r="E111" t="s">
+        <v>35</v>
+      </c>
+      <c r="F111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" t="s">
+        <v>22</v>
+      </c>
+      <c r="E113" t="s">
+        <v>35</v>
+      </c>
+      <c r="F113" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B114" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" t="s">
+        <v>32</v>
+      </c>
+      <c r="C116" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B118" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E118" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B119" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" t="s">
         <v>15</v>
+      </c>
+      <c r="D119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120" t="s">
+        <v>35</v>
+      </c>
+      <c r="F120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B121" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121" t="s">
+        <v>19</v>
+      </c>
+      <c r="F121" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
